--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H2">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I2">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J2">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N2">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O2">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P2">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q2">
-        <v>2043.347022120575</v>
+        <v>709.5575979902223</v>
       </c>
       <c r="R2">
-        <v>18390.12319908517</v>
+        <v>6386.018381912001</v>
       </c>
       <c r="S2">
-        <v>0.07671618413655203</v>
+        <v>0.02811737824507143</v>
       </c>
       <c r="T2">
-        <v>0.07933037597171889</v>
+        <v>0.0286573227987791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H3">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I3">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J3">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>53.874554</v>
       </c>
       <c r="O3">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P3">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q3">
-        <v>914.9738007728021</v>
+        <v>644.3973235849032</v>
       </c>
       <c r="R3">
-        <v>8234.764206955218</v>
+        <v>5799.575912264129</v>
       </c>
       <c r="S3">
-        <v>0.03435211827473188</v>
+        <v>0.02553529599100719</v>
       </c>
       <c r="T3">
-        <v>0.03552270604738027</v>
+        <v>0.02602565621867437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H4">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I4">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J4">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N4">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O4">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P4">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q4">
-        <v>535.548678662603</v>
+        <v>447.3668719552356</v>
       </c>
       <c r="R4">
-        <v>4819.938107963427</v>
+        <v>4026.30184759712</v>
       </c>
       <c r="S4">
-        <v>0.02010683971033433</v>
+        <v>0.01772764267299571</v>
       </c>
       <c r="T4">
-        <v>0.02079200330121634</v>
+        <v>0.01806807071816871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H5">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I5">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J5">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N5">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O5">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P5">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q5">
-        <v>238.79918467149</v>
+        <v>21.30382628958933</v>
       </c>
       <c r="R5">
-        <v>1432.79510802894</v>
+        <v>127.822957737536</v>
       </c>
       <c r="S5">
-        <v>0.008965565821465005</v>
+        <v>0.0008441988973810331</v>
       </c>
       <c r="T5">
-        <v>0.006180718496547629</v>
+        <v>0.0005736068300953638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H6">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I6">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J6">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N6">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O6">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P6">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q6">
-        <v>315.890309944503</v>
+        <v>276.4160986166969</v>
       </c>
       <c r="R6">
-        <v>2843.012789500527</v>
+        <v>2487.744887550272</v>
       </c>
       <c r="S6">
-        <v>0.0118599038353775</v>
+        <v>0.0109534391849888</v>
       </c>
       <c r="T6">
-        <v>0.01226404364135536</v>
+        <v>0.01116378062510296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J7">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N7">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O7">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P7">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q7">
-        <v>609.4783222069776</v>
+        <v>300.5098555391111</v>
       </c>
       <c r="R7">
-        <v>5485.304899862799</v>
+        <v>2704.588699852</v>
       </c>
       <c r="S7">
-        <v>0.02288248187287506</v>
+        <v>0.0119081936385401</v>
       </c>
       <c r="T7">
-        <v>0.02366222864930424</v>
+        <v>0.01213686945047335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J8">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>53.874554</v>
       </c>
       <c r="O8">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P8">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q8">
         <v>272.9133578003875</v>
@@ -948,10 +948,10 @@
         <v>2456.220220203488</v>
       </c>
       <c r="S8">
-        <v>0.01024636108486901</v>
+        <v>0.01081463736156308</v>
       </c>
       <c r="T8">
-        <v>0.01059551757368183</v>
+        <v>0.01102231335798081</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J9">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N9">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O9">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P9">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q9">
-        <v>159.7405171994257</v>
+        <v>189.4675702790578</v>
       </c>
       <c r="R9">
-        <v>1437.664654794832</v>
+        <v>1705.20813251152</v>
       </c>
       <c r="S9">
-        <v>0.005997357668019285</v>
+        <v>0.007507961797323087</v>
       </c>
       <c r="T9">
-        <v>0.006201724499148487</v>
+        <v>0.007652138933846133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J10">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N10">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O10">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P10">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q10">
-        <v>71.22770867717333</v>
+        <v>9.022537111642665</v>
       </c>
       <c r="R10">
-        <v>427.36625206304</v>
+        <v>54.13522266985599</v>
       </c>
       <c r="S10">
-        <v>0.002674199710253755</v>
+        <v>0.0003575327632553192</v>
       </c>
       <c r="T10">
-        <v>0.001843550752040197</v>
+        <v>0.0002429323653730794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J11">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N11">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O11">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P11">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q11">
-        <v>94.222025932048</v>
+        <v>117.0669753932124</v>
       </c>
       <c r="R11">
-        <v>847.998233388432</v>
+        <v>1053.602778538912</v>
       </c>
       <c r="S11">
-        <v>0.003537506949563773</v>
+        <v>0.004638970023660831</v>
       </c>
       <c r="T11">
-        <v>0.003658051550269343</v>
+        <v>0.004728053243911916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H12">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I12">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J12">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N12">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O12">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P12">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q12">
-        <v>4983.108463860833</v>
+        <v>3513.8698343775</v>
       </c>
       <c r="R12">
-        <v>44847.9761747475</v>
+        <v>31624.8285093975</v>
       </c>
       <c r="S12">
-        <v>0.187087686206734</v>
+        <v>0.1392428289359254</v>
       </c>
       <c r="T12">
-        <v>0.1934629133800689</v>
+        <v>0.1419167413637308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H13">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I13">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J13">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>53.874554</v>
       </c>
       <c r="O13">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P13">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q13">
-        <v>2231.345748658067</v>
+        <v>3191.183243068861</v>
       </c>
       <c r="R13">
-        <v>20082.1117379226</v>
+        <v>28720.64918761974</v>
       </c>
       <c r="S13">
-        <v>0.08377447857521272</v>
+        <v>0.1264558459367485</v>
       </c>
       <c r="T13">
-        <v>0.08662918987702703</v>
+        <v>0.128884206956148</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H14">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I14">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J14">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N14">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O14">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P14">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q14">
-        <v>1306.042059700433</v>
+        <v>2215.4494021569</v>
       </c>
       <c r="R14">
-        <v>11754.3785373039</v>
+        <v>19939.0446194121</v>
       </c>
       <c r="S14">
-        <v>0.0490345311184973</v>
+        <v>0.08779079950620348</v>
       </c>
       <c r="T14">
-        <v>0.05070543892411816</v>
+        <v>0.08947666664665511</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H15">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I15">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J15">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N15">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O15">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P15">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q15">
-        <v>582.359347393</v>
+        <v>105.50076944823</v>
       </c>
       <c r="R15">
-        <v>3494.156084358</v>
+        <v>633.00461668938</v>
       </c>
       <c r="S15">
-        <v>0.02186431694890413</v>
+        <v>0.004180640230087193</v>
       </c>
       <c r="T15">
-        <v>0.01507291239298377</v>
+        <v>0.002840614691145585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H16">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I16">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J16">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N16">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O16">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P16">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q16">
-        <v>770.3614021971001</v>
+        <v>1368.86729620914</v>
       </c>
       <c r="R16">
-        <v>6933.252619773901</v>
+        <v>12319.80566588226</v>
       </c>
       <c r="S16">
-        <v>0.02892273634525002</v>
+        <v>0.05424360142691475</v>
       </c>
       <c r="T16">
-        <v>0.02990831171054523</v>
+        <v>0.05528525392056733</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H17">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I17">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J17">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N17">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O17">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P17">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q17">
-        <v>546.803715448625</v>
+        <v>396.9488245536667</v>
       </c>
       <c r="R17">
-        <v>3280.82229269175</v>
+        <v>2381.692947322</v>
       </c>
       <c r="S17">
-        <v>0.02052940301710151</v>
+        <v>0.01572974523213512</v>
       </c>
       <c r="T17">
-        <v>0.01415264395774034</v>
+        <v>0.01068787145873309</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H18">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I18">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J18">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>53.874554</v>
       </c>
       <c r="O18">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P18">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q18">
-        <v>244.84880364643</v>
+        <v>360.4961188028614</v>
       </c>
       <c r="R18">
-        <v>1469.09282187858</v>
+        <v>2162.976712817168</v>
       </c>
       <c r="S18">
-        <v>0.009192694976822978</v>
+        <v>0.01428524725402199</v>
       </c>
       <c r="T18">
-        <v>0.006337297724181574</v>
+        <v>0.009706380119576963</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H19">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I19">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J19">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N19">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O19">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P19">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q19">
-        <v>143.313888500645</v>
+        <v>250.2710907047867</v>
       </c>
       <c r="R19">
-        <v>859.88333100387</v>
+        <v>1501.62654422872</v>
       </c>
       <c r="S19">
-        <v>0.00538063018200929</v>
+        <v>0.009917400562103541</v>
       </c>
       <c r="T19">
-        <v>0.003709320878488971</v>
+        <v>0.006738564474393733</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H20">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I20">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J20">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N20">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O20">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P20">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q20">
-        <v>63.90313540035</v>
+        <v>11.918030091004</v>
       </c>
       <c r="R20">
-        <v>255.6125416014</v>
+        <v>47.672120364016</v>
       </c>
       <c r="S20">
-        <v>0.002399203194173341</v>
+        <v>0.0004722713997483264</v>
       </c>
       <c r="T20">
-        <v>0.001102648351444129</v>
+        <v>0.0002139291276773344</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H21">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I21">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J21">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N21">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O21">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P21">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q21">
-        <v>84.53287340914501</v>
+        <v>154.6358544315387</v>
       </c>
       <c r="R21">
-        <v>507.19724045487</v>
+        <v>927.8151265892319</v>
       </c>
       <c r="S21">
-        <v>0.003173733786695552</v>
+        <v>0.006127698190558017</v>
       </c>
       <c r="T21">
-        <v>0.002187921600172027</v>
+        <v>0.004163579869354672</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H22">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I22">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J22">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N22">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O22">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P22">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q22">
-        <v>5260.280884070001</v>
+        <v>3609.710703284833</v>
       </c>
       <c r="R22">
-        <v>47342.52795663002</v>
+        <v>32487.3963295635</v>
       </c>
       <c r="S22">
-        <v>0.1974939511221634</v>
+        <v>0.1430406798363127</v>
       </c>
       <c r="T22">
-        <v>0.2042237836904704</v>
+        <v>0.1457875232782256</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H23">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I23">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J23">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>53.874554</v>
       </c>
       <c r="O23">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P23">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q23">
-        <v>2355.458540094241</v>
+        <v>3278.222828845783</v>
       </c>
       <c r="R23">
-        <v>21199.12686084817</v>
+        <v>29504.00545961205</v>
       </c>
       <c r="S23">
-        <v>0.08843421559415417</v>
+        <v>0.1299049316241063</v>
       </c>
       <c r="T23">
-        <v>0.09144771277154409</v>
+        <v>0.1323995262381151</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H24">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I24">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J24">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N24">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O24">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P24">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q24">
-        <v>1378.687245172006</v>
+        <v>2275.875828214474</v>
       </c>
       <c r="R24">
-        <v>12408.18520654806</v>
+        <v>20482.88245393026</v>
       </c>
       <c r="S24">
-        <v>0.05176194910718895</v>
+        <v>0.09018529529100099</v>
       </c>
       <c r="T24">
-        <v>0.0535257968044034</v>
+        <v>0.09191714449089673</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H25">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I25">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J25">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N25">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O25">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P25">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q25">
-        <v>614.7515682164033</v>
+        <v>108.378305011838</v>
       </c>
       <c r="R25">
-        <v>3688.50940929842</v>
+        <v>650.269830071028</v>
       </c>
       <c r="S25">
-        <v>0.02308046259150825</v>
+        <v>0.004294667274663672</v>
       </c>
       <c r="T25">
-        <v>0.01591130385844411</v>
+        <v>0.002918092512767444</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H26">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I26">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J26">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N26">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O26">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P26">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q26">
-        <v>813.2107473059289</v>
+        <v>1406.203178661017</v>
       </c>
       <c r="R26">
-        <v>7318.89672575336</v>
+        <v>12655.82860794916</v>
       </c>
       <c r="S26">
-        <v>0.03053148816954274</v>
+        <v>0.05572309672368334</v>
       </c>
       <c r="T26">
-        <v>0.03157188359570529</v>
+        <v>0.05679316030960647</v>
       </c>
     </row>
   </sheetData>
